--- a/emails.xlsx
+++ b/emails.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>NOME</t>
   </si>
@@ -33,10 +33,16 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>NOME DO FUNCIONARIO</t>
-  </si>
-  <si>
-    <t>email@dominio.com.br</t>
+    <t>NOME DO FUNCIONARIO EMPRESA 1</t>
+  </si>
+  <si>
+    <t>NOME DO FUNCIONARIO EMPRESA 2</t>
+  </si>
+  <si>
+    <t>funcionario-empresa1@dominio.com.br</t>
+  </si>
+  <si>
+    <t>funcionario-empresa2@dominio.com.br</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -375,12 +383,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="financeiro@plenocomex.com.br"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -391,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -408,10 +418,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
